--- a/adnd-adventure-game-book/checklist.xlsx
+++ b/adnd-adventure-game-book/checklist.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clark/Local/src/weatherspud/japanese-collectors-list/adnd-adventure-game-book/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{77592F01-03FC-B84B-BE6A-07813B455C90}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{68A9DD0C-C456-5A4A-AF91-6B37AF3306DA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{A654C372-0B9C-F541-B922-0385DFF864DB}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="checklist" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -519,7 +519,7 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -562,7 +562,7 @@
         <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -579,7 +579,7 @@
         <v>29</v>
       </c>
       <c r="E3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">

--- a/adnd-adventure-game-book/checklist.xlsx
+++ b/adnd-adventure-game-book/checklist.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10510"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clark/Local/src/weatherspud/japanese-collectors-list/adnd-adventure-game-book/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{68A9DD0C-C456-5A4A-AF91-6B37AF3306DA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79DFCB7B-BAC2-4A42-802B-5B5DC88F715D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{A654C372-0B9C-F541-B922-0385DFF864DB}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="43">
   <si>
     <t>year</t>
   </si>
@@ -156,6 +156,12 @@
   </si>
   <si>
     <t>Clash of the Sorcerers</t>
+  </si>
+  <si>
+    <t>product_type</t>
+  </si>
+  <si>
+    <t>gamebook</t>
   </si>
 </sst>
 </file>
@@ -516,10 +522,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5C3FF62-6894-6842-9D0D-8CECBD6EA30C}">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="F2" sqref="F2:F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -531,7 +537,7 @@
     <col min="5" max="5" width="30.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -547,8 +553,11 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F1" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1985</v>
       </c>
@@ -564,8 +573,11 @@
       <c r="E2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1985</v>
       </c>
@@ -581,8 +593,11 @@
       <c r="E3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1986</v>
       </c>
@@ -598,8 +613,11 @@
       <c r="E4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1986</v>
       </c>
@@ -615,8 +633,11 @@
       <c r="E5" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>1986</v>
       </c>
@@ -632,8 +653,11 @@
       <c r="E6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>1986</v>
       </c>
@@ -649,8 +673,11 @@
       <c r="E7" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>1986</v>
       </c>
@@ -666,8 +693,11 @@
       <c r="E8" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>1986</v>
       </c>
@@ -683,8 +713,11 @@
       <c r="E9" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>1987</v>
       </c>
@@ -700,8 +733,11 @@
       <c r="E10" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F10" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>1987</v>
       </c>
@@ -717,8 +753,11 @@
       <c r="E11" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>1987</v>
       </c>
@@ -734,8 +773,11 @@
       <c r="E12" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F12" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>1987</v>
       </c>
@@ -751,8 +793,11 @@
       <c r="E13" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F13" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>1987</v>
       </c>
@@ -767,6 +812,9 @@
       </c>
       <c r="E14" t="s">
         <v>16</v>
+      </c>
+      <c r="F14" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/adnd-adventure-game-book/checklist.xlsx
+++ b/adnd-adventure-game-book/checklist.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10510"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10614"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clark/Local/src/weatherspud/japanese-collectors-list/adnd-adventure-game-book/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79DFCB7B-BAC2-4A42-802B-5B5DC88F715D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE998A70-0FD3-424B-BFFE-87C6BE97D296}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{A654C372-0B9C-F541-B922-0385DFF864DB}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="30720" windowHeight="18740" xr2:uid="{A654C372-0B9C-F541-B922-0385DFF864DB}"/>
   </bookViews>
   <sheets>
     <sheet name="checklist" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="52">
   <si>
     <t>year</t>
   </si>
@@ -162,6 +162,33 @@
   </si>
   <si>
     <t>gamebook</t>
+  </si>
+  <si>
+    <t>アルカニア城の決闘</t>
+  </si>
+  <si>
+    <t>Castle Arcania</t>
+  </si>
+  <si>
+    <t xml:space="preserve">超古代ロボットを探せ </t>
+  </si>
+  <si>
+    <t>Battle for the Ancient Robot</t>
+  </si>
+  <si>
+    <t>レッド・ドラゴンの逆襲</t>
+  </si>
+  <si>
+    <t>Revenge of the Red Dragon</t>
+  </si>
+  <si>
+    <t>castle_arcania.jpg</t>
+  </si>
+  <si>
+    <t>battle_for_ancient_robot.jpg</t>
+  </si>
+  <si>
+    <t>revenge_of_red_dragon.jpg</t>
   </si>
 </sst>
 </file>
@@ -522,10 +549,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5C3FF62-6894-6842-9D0D-8CECBD6EA30C}">
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F14"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -817,6 +844,66 @@
         <v>42</v>
       </c>
     </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>1986</v>
+      </c>
+      <c r="B15" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" t="s">
+        <v>44</v>
+      </c>
+      <c r="D15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E15" t="s">
+        <v>49</v>
+      </c>
+      <c r="F15" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>1987</v>
+      </c>
+      <c r="B16" t="s">
+        <v>45</v>
+      </c>
+      <c r="C16" t="s">
+        <v>46</v>
+      </c>
+      <c r="D16" t="s">
+        <v>29</v>
+      </c>
+      <c r="E16" t="s">
+        <v>50</v>
+      </c>
+      <c r="F16" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>1987</v>
+      </c>
+      <c r="B17" t="s">
+        <v>47</v>
+      </c>
+      <c r="C17" t="s">
+        <v>48</v>
+      </c>
+      <c r="D17" t="s">
+        <v>29</v>
+      </c>
+      <c r="E17" t="s">
+        <v>51</v>
+      </c>
+      <c r="F17" t="s">
+        <v>42</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/adnd-adventure-game-book/checklist.xlsx
+++ b/adnd-adventure-game-book/checklist.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10614"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clark/Local/src/weatherspud/japanese-collectors-list/adnd-adventure-game-book/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE998A70-0FD3-424B-BFFE-87C6BE97D296}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DD88EAD-2891-2C48-9477-6F65B0F8CE41}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="30720" windowHeight="18740" xr2:uid="{A654C372-0B9C-F541-B922-0385DFF864DB}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="13440" windowHeight="16340" xr2:uid="{A654C372-0B9C-F541-B922-0385DFF864DB}"/>
   </bookViews>
   <sheets>
     <sheet name="checklist" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="64">
   <si>
     <t>year</t>
   </si>
@@ -189,6 +189,42 @@
   </si>
   <si>
     <t>revenge_of_red_dragon.jpg</t>
+  </si>
+  <si>
+    <t>product_code</t>
+  </si>
+  <si>
+    <t>1-1</t>
+  </si>
+  <si>
+    <t>1-2</t>
+  </si>
+  <si>
+    <t>1-3</t>
+  </si>
+  <si>
+    <t>1-4</t>
+  </si>
+  <si>
+    <t>1-5</t>
+  </si>
+  <si>
+    <t>1-6</t>
+  </si>
+  <si>
+    <t>1-7</t>
+  </si>
+  <si>
+    <t>1-8</t>
+  </si>
+  <si>
+    <t>1-9</t>
+  </si>
+  <si>
+    <t>1-10</t>
+  </si>
+  <si>
+    <t>1-11</t>
   </si>
 </sst>
 </file>
@@ -232,9 +268,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -549,10 +586,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5C3FF62-6894-6842-9D0D-8CECBD6EA30C}">
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -564,7 +601,7 @@
     <col min="5" max="5" width="30.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -583,8 +620,11 @@
       <c r="F1" s="1" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G1" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1985</v>
       </c>
@@ -603,8 +643,11 @@
       <c r="F2" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G2" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1985</v>
       </c>
@@ -623,8 +666,11 @@
       <c r="F3" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G3" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1986</v>
       </c>
@@ -643,8 +689,11 @@
       <c r="F4" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G4" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1986</v>
       </c>
@@ -663,8 +712,11 @@
       <c r="F5" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G5" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>1986</v>
       </c>
@@ -683,8 +735,11 @@
       <c r="F6" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G6" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>1986</v>
       </c>
@@ -703,8 +758,11 @@
       <c r="F7" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G7" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>1986</v>
       </c>
@@ -723,8 +781,11 @@
       <c r="F8" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G8" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>1986</v>
       </c>
@@ -743,8 +804,11 @@
       <c r="F9" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G9" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>1987</v>
       </c>
@@ -763,8 +827,11 @@
       <c r="F10" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G10" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>1987</v>
       </c>
@@ -783,8 +850,11 @@
       <c r="F11" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G11" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>1987</v>
       </c>
@@ -803,8 +873,11 @@
       <c r="F12" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G12" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>1987</v>
       </c>
@@ -823,8 +896,11 @@
       <c r="F13" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G13" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>1987</v>
       </c>
@@ -843,8 +919,11 @@
       <c r="F14" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G14" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>1986</v>
       </c>
@@ -863,8 +942,9 @@
       <c r="F15" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G15" s="2"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>1987</v>
       </c>
@@ -883,8 +963,9 @@
       <c r="F16" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G16" s="2"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>1987</v>
       </c>
@@ -903,6 +984,7 @@
       <c r="F17" t="s">
         <v>42</v>
       </c>
+      <c r="G17" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/adnd-adventure-game-book/checklist.xlsx
+++ b/adnd-adventure-game-book/checklist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clark/Local/src/weatherspud/japanese-collectors-list/adnd-adventure-game-book/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DD88EAD-2891-2C48-9477-6F65B0F8CE41}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6575915C-D5F5-5D4E-93F4-3EBA41B08A79}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="13440" windowHeight="16340" xr2:uid="{A654C372-0B9C-F541-B922-0385DFF864DB}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="65">
   <si>
     <t>year</t>
   </si>
@@ -225,6 +225,9 @@
   </si>
   <si>
     <t>1-11</t>
+  </si>
+  <si>
+    <t>slipcase set</t>
   </si>
 </sst>
 </file>
@@ -589,7 +592,7 @@
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="F15" sqref="F15:F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -940,7 +943,7 @@
         <v>49</v>
       </c>
       <c r="F15" t="s">
-        <v>42</v>
+        <v>64</v>
       </c>
       <c r="G15" s="2"/>
     </row>
@@ -961,7 +964,7 @@
         <v>50</v>
       </c>
       <c r="F16" t="s">
-        <v>42</v>
+        <v>64</v>
       </c>
       <c r="G16" s="2"/>
     </row>
@@ -982,7 +985,7 @@
         <v>51</v>
       </c>
       <c r="F17" t="s">
-        <v>42</v>
+        <v>64</v>
       </c>
       <c r="G17" s="2"/>
     </row>

--- a/adnd-adventure-game-book/checklist.xlsx
+++ b/adnd-adventure-game-book/checklist.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clark/Local/src/weatherspud/japanese-collectors-list/adnd-adventure-game-book/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6575915C-D5F5-5D4E-93F4-3EBA41B08A79}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{415683DE-C398-4E47-9391-25DA673B6B5E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="13440" windowHeight="16340" xr2:uid="{A654C372-0B9C-F541-B922-0385DFF864DB}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="26880" windowHeight="16340" xr2:uid="{A654C372-0B9C-F541-B922-0385DFF864DB}"/>
   </bookViews>
   <sheets>
     <sheet name="checklist" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="89">
   <si>
     <t>year</t>
   </si>
@@ -228,6 +228,78 @@
   </si>
   <si>
     <t>slipcase set</t>
+  </si>
+  <si>
+    <t>moonshae1.jpg</t>
+  </si>
+  <si>
+    <t>moonshae2.jpg</t>
+  </si>
+  <si>
+    <t>moonshae3.jpg</t>
+  </si>
+  <si>
+    <t>moonshae4.jpeg</t>
+  </si>
+  <si>
+    <t>moonshae5.jpg</t>
+  </si>
+  <si>
+    <t>moonshae6.jpg</t>
+  </si>
+  <si>
+    <t>3-1</t>
+  </si>
+  <si>
+    <t>3-2</t>
+  </si>
+  <si>
+    <t>3-3</t>
+  </si>
+  <si>
+    <t>3-4</t>
+  </si>
+  <si>
+    <t>3-5</t>
+  </si>
+  <si>
+    <t>3-6</t>
+  </si>
+  <si>
+    <t>ムーンシェイ・サーガ〈1〉魔獣よみがえる</t>
+  </si>
+  <si>
+    <t>Moonshae Saga 1: Revive the Beast</t>
+  </si>
+  <si>
+    <t>ムーンシェイ・サーガ〈2〉竪琴と一角獣</t>
+  </si>
+  <si>
+    <t>ムーンシェイ・サーガ〈3〉七人の黒魔術師</t>
+  </si>
+  <si>
+    <t>Moonshae Saga 3: Seven Black Magicians</t>
+  </si>
+  <si>
+    <t>Moonshae Saga 2: Lyre and Unicorn</t>
+  </si>
+  <si>
+    <t>ムーンシェイ・サーガ〈4〉死せる王妃の預言</t>
+  </si>
+  <si>
+    <t>Moonshae Saga 4: The Prophecy of the Dead Queen</t>
+  </si>
+  <si>
+    <t>ムーンシェイ・サーガ〈5〉猫の爪・豹の牙</t>
+  </si>
+  <si>
+    <t>Moonshae Saga 5: Cat's Claws, Panther's Fangs</t>
+  </si>
+  <si>
+    <t>ムーンシェイ・サーガ〈6〉暗黒の解放</t>
+  </si>
+  <si>
+    <t>Moonshae Saga 6: The Release of Darkness</t>
   </si>
 </sst>
 </file>
@@ -589,17 +661,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5C3FF62-6894-6842-9D0D-8CECBD6EA30C}">
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15:F17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="7.33203125" customWidth="1"/>
     <col min="2" max="2" width="46.6640625" customWidth="1"/>
-    <col min="3" max="3" width="28.33203125" customWidth="1"/>
+    <col min="3" max="3" width="43.33203125" customWidth="1"/>
     <col min="4" max="4" width="18.1640625" customWidth="1"/>
     <col min="5" max="5" width="30.83203125" customWidth="1"/>
   </cols>
@@ -989,6 +1061,144 @@
       </c>
       <c r="G17" s="2"/>
     </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>1989</v>
+      </c>
+      <c r="B18" t="s">
+        <v>77</v>
+      </c>
+      <c r="C18" t="s">
+        <v>78</v>
+      </c>
+      <c r="D18" t="s">
+        <v>29</v>
+      </c>
+      <c r="E18" t="s">
+        <v>65</v>
+      </c>
+      <c r="F18" t="s">
+        <v>42</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>1989</v>
+      </c>
+      <c r="B19" t="s">
+        <v>79</v>
+      </c>
+      <c r="C19" t="s">
+        <v>82</v>
+      </c>
+      <c r="D19" t="s">
+        <v>29</v>
+      </c>
+      <c r="E19" t="s">
+        <v>66</v>
+      </c>
+      <c r="F19" t="s">
+        <v>42</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>1989</v>
+      </c>
+      <c r="B20" t="s">
+        <v>80</v>
+      </c>
+      <c r="C20" t="s">
+        <v>81</v>
+      </c>
+      <c r="D20" t="s">
+        <v>29</v>
+      </c>
+      <c r="E20" t="s">
+        <v>67</v>
+      </c>
+      <c r="F20" t="s">
+        <v>42</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>1989</v>
+      </c>
+      <c r="B21" t="s">
+        <v>83</v>
+      </c>
+      <c r="C21" t="s">
+        <v>84</v>
+      </c>
+      <c r="D21" t="s">
+        <v>29</v>
+      </c>
+      <c r="E21" t="s">
+        <v>68</v>
+      </c>
+      <c r="F21" t="s">
+        <v>42</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>1990</v>
+      </c>
+      <c r="B22" t="s">
+        <v>85</v>
+      </c>
+      <c r="C22" t="s">
+        <v>86</v>
+      </c>
+      <c r="D22" t="s">
+        <v>29</v>
+      </c>
+      <c r="E22" t="s">
+        <v>69</v>
+      </c>
+      <c r="F22" t="s">
+        <v>42</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>1990</v>
+      </c>
+      <c r="B23" t="s">
+        <v>87</v>
+      </c>
+      <c r="C23" t="s">
+        <v>88</v>
+      </c>
+      <c r="D23" t="s">
+        <v>29</v>
+      </c>
+      <c r="E23" t="s">
+        <v>70</v>
+      </c>
+      <c r="F23" t="s">
+        <v>42</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
